--- a/OriginTable/Sounds.xlsx
+++ b/OriginTable/Sounds.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18375"/>
+    <workbookView windowWidth="21585" windowHeight="12975"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sounds" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>SoundsID</t>
   </si>
@@ -46,6 +44,9 @@
     <t>PlayCD</t>
   </si>
   <si>
+    <t>##Notes</t>
+  </si>
+  <si>
     <t>音频调用ID</t>
   </si>
   <si>
@@ -61,6 +62,9 @@
     <t>播放间隔</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -76,7 +80,37 @@
     <t>1|2|3</t>
   </si>
   <si>
+    <t>方块消除</t>
+  </si>
+  <si>
     <t>SFX_turnToSolid</t>
+  </si>
+  <si>
+    <t>方块固定</t>
+  </si>
+  <si>
+    <t>SFX_PickBomb</t>
+  </si>
+  <si>
+    <t>捡起炸弹</t>
+  </si>
+  <si>
+    <t>SFX_UseBomb</t>
+  </si>
+  <si>
+    <t>使用炸弹</t>
+  </si>
+  <si>
+    <t>SFX_BombEffect</t>
+  </si>
+  <si>
+    <t>炸弹爆炸</t>
+  </si>
+  <si>
+    <t>BGM_Tetris</t>
+  </si>
+  <si>
+    <t>游玩BGM</t>
   </si>
 </sst>
 </file>
@@ -711,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +753,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1035,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1050,7 +1087,7 @@
     <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,62 +1103,74 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" ht="15" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -1130,44 +1179,81 @@
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>